--- a/ex00/Combinaciones.xlsx
+++ b/ex00/Combinaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Combinaciones posibles</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puede ser que falte alguna combinación</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="37">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,12 +340,9 @@
     <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,13 +350,8 @@
     <xf fontId="0" fillId="9" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="11" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -369,13 +364,12 @@
     <xf fontId="0" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="8" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,16 +1001,16 @@
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>4</v>
       </c>
       <c r="F8" s="12">
@@ -1025,37 +1019,37 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" ht="21">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
         <v>4</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19" t="s">
+      <c r="L9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1063,31 +1057,31 @@
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
         <v>4</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="L10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1095,229 +1089,229 @@
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22">
-        <v>3</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>4</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" ht="21">
-      <c r="A12" s="25">
-        <v>3</v>
-      </c>
-      <c r="B12" s="26">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26">
-        <v>2</v>
-      </c>
-      <c r="D12" s="26">
-        <v>4</v>
-      </c>
-      <c r="E12" s="26">
-        <v>3</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="21">
-      <c r="A13" s="25">
-        <v>3</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-      <c r="C13" s="26">
-        <v>3</v>
-      </c>
-      <c r="D13" s="26">
-        <v>4</v>
-      </c>
-      <c r="E13" s="26">
-        <v>2</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
         <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="M13" s="30" t="s">
+      <c r="L13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="21">
-      <c r="A14" s="25">
-        <v>3</v>
-      </c>
-      <c r="B14" s="26">
-        <v>2</v>
-      </c>
-      <c r="C14" s="26">
-        <v>3</v>
-      </c>
-      <c r="D14" s="26">
-        <v>4</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2</v>
+      </c>
+      <c r="K14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="32" t="s">
+      <c r="L14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" ht="21">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26">
-        <v>1</v>
-      </c>
-      <c r="C15" s="26">
-        <v>4</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3</v>
-      </c>
-      <c r="E15" s="26">
-        <v>2</v>
-      </c>
-      <c r="F15" s="25">
-        <v>3</v>
-      </c>
-      <c r="K15" s="17" t="s">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" ht="21">
-      <c r="A16" s="25">
-        <v>2</v>
-      </c>
-      <c r="B16" s="26">
-        <v>2</v>
-      </c>
-      <c r="C16" s="26">
-        <v>4</v>
-      </c>
-      <c r="D16" s="26">
-        <v>3</v>
-      </c>
-      <c r="E16" s="26">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="K16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" ht="21">
-      <c r="A17" s="25">
-        <v>2</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3</v>
-      </c>
-      <c r="C17" s="26">
-        <v>4</v>
-      </c>
-      <c r="D17" s="26">
-        <v>2</v>
-      </c>
-      <c r="E17" s="26">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25">
-        <v>3</v>
-      </c>
-      <c r="K17" s="17" t="s">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1325,31 +1319,31 @@
       <c r="A18" s="12">
         <v>2</v>
       </c>
-      <c r="B18" s="39">
-        <v>1</v>
-      </c>
-      <c r="C18" s="39">
-        <v>4</v>
-      </c>
-      <c r="D18" s="39">
-        <v>2</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
         <v>3</v>
       </c>
       <c r="F18" s="12">
         <v>2</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1357,31 +1351,31 @@
       <c r="A19" s="12">
         <v>2</v>
       </c>
-      <c r="B19" s="42">
-        <v>2</v>
-      </c>
-      <c r="C19" s="42">
-        <v>1</v>
-      </c>
-      <c r="D19" s="42">
-        <v>4</v>
-      </c>
-      <c r="E19" s="42">
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
         <v>3</v>
       </c>
       <c r="F19" s="12">
         <v>2</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1389,31 +1383,31 @@
       <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="42">
-        <v>2</v>
-      </c>
-      <c r="C20" s="42">
-        <v>4</v>
-      </c>
-      <c r="D20" s="42">
-        <v>1</v>
-      </c>
-      <c r="E20" s="42">
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>3</v>
       </c>
       <c r="F20" s="12">
         <v>2</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1421,243 +1415,245 @@
       <c r="A21" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="44">
-        <v>3</v>
-      </c>
-      <c r="C21" s="42">
-        <v>1</v>
-      </c>
-      <c r="D21" s="42">
-        <v>4</v>
-      </c>
-      <c r="E21" s="42">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
         <v>2</v>
       </c>
       <c r="F21" s="12">
         <v>2</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="K21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" ht="21">
       <c r="A22" s="12">
         <v>2</v>
       </c>
-      <c r="B22" s="39">
-        <v>3</v>
-      </c>
-      <c r="C22" s="39">
-        <v>4</v>
-      </c>
-      <c r="D22" s="39">
-        <v>1</v>
-      </c>
-      <c r="E22" s="39">
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
         <v>2</v>
       </c>
       <c r="F22" s="12">
         <v>2</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="K22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" ht="21">
       <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="39">
-        <v>3</v>
-      </c>
-      <c r="C23" s="39">
-        <v>2</v>
-      </c>
-      <c r="D23" s="39">
-        <v>4</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
         <v>1</v>
       </c>
       <c r="F23" s="12">
         <v>2</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="N23" s="17"/>
+      <c r="K23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" ht="21">
       <c r="A24" s="12">
         <v>2</v>
       </c>
-      <c r="B24" s="45">
-        <v>3</v>
-      </c>
-      <c r="C24" s="45">
-        <v>1</v>
-      </c>
-      <c r="D24" s="45">
-        <v>2</v>
-      </c>
-      <c r="E24" s="45">
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8">
         <v>4</v>
       </c>
       <c r="F24" s="12">
         <v>1</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="K24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" ht="21">
       <c r="A25" s="12">
         <v>2</v>
       </c>
-      <c r="B25" s="45">
-        <v>3</v>
-      </c>
-      <c r="C25" s="45">
-        <v>2</v>
-      </c>
-      <c r="D25" s="45">
-        <v>1</v>
-      </c>
-      <c r="E25" s="45">
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>4</v>
       </c>
       <c r="F25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="K25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" ht="21">
       <c r="A26" s="12">
         <v>1</v>
       </c>
-      <c r="B26" s="45">
-        <v>4</v>
-      </c>
-      <c r="C26" s="45">
-        <v>1</v>
-      </c>
-      <c r="D26" s="45">
-        <v>2</v>
-      </c>
-      <c r="E26" s="45">
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
         <v>3</v>
       </c>
       <c r="F26" s="12">
         <v>2</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="K26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" ht="21">
       <c r="A27" s="12">
         <v>1</v>
       </c>
-      <c r="B27" s="45">
-        <v>4</v>
-      </c>
-      <c r="C27" s="45">
-        <v>2</v>
-      </c>
-      <c r="D27" s="45">
-        <v>1</v>
-      </c>
-      <c r="E27" s="45">
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
         <v>3</v>
       </c>
       <c r="F27" s="12">
         <v>2</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="K27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" ht="21">
       <c r="A28" s="12">
         <v>1</v>
       </c>
-      <c r="B28" s="22">
-        <v>4</v>
-      </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22">
-        <v>3</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="B28" s="6">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3</v>
+      </c>
+      <c r="E28" s="6">
         <v>2</v>
       </c>
       <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="K28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" ht="21">
       <c r="A29" s="12">
         <v>1</v>
       </c>
-      <c r="B29" s="22">
-        <v>4</v>
-      </c>
-      <c r="C29" s="22">
-        <v>2</v>
-      </c>
-      <c r="D29" s="22">
-        <v>3</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="12">
         <v>3</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="K29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" ht="21">
       <c r="A30" s="12">
         <v>1</v>
       </c>
-      <c r="B30" s="22">
-        <v>4</v>
-      </c>
-      <c r="C30" s="22">
-        <v>3</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="22">
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
         <v>2</v>
       </c>
       <c r="F30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="K30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" ht="21">
       <c r="A31" s="12">
         <v>1</v>
       </c>
-      <c r="B31" s="14">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14">
-        <v>3</v>
-      </c>
-      <c r="D31" s="14">
-        <v>2</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="B31" s="10">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="12">
         <v>4</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="K31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/ex00/Combinaciones.xlsx
+++ b/ex00/Combinaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Combinaciones posibles</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t xml:space="preserve">Puede ser que falte alguna combinación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparte de estas combinaciones por sí solas, se pueden hacer también comprobaciones cruzadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por ejemplo: Si "col2top" es un 3 y "col2bottom" es 2 y tanto "left2raw" como right2raw" contienen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el valor de 2, podemos recorrer todas las combinaciones de 2-2 y acotamos el resultado a 2-1-4-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para la fila 2 y a 2-1-3-4 para la columna, ya que en la segunda posición de ambas es la única que encaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con las combinaciones posibles de "col2top" = 3, "col2bottom" = 1, "left2left" = 2 y "right2raw" = 2.</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1513,9 @@
       <c r="F24" s="12">
         <v>1</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="N24" s="14"/>
     </row>
     <row r="25" ht="21">
@@ -1520,7 +1537,9 @@
       <c r="F25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="N25" s="14"/>
     </row>
     <row r="26" ht="21">
@@ -1542,7 +1561,9 @@
       <c r="F26" s="12">
         <v>2</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="36" t="s">
+        <v>42</v>
+      </c>
       <c r="N26" s="14"/>
     </row>
     <row r="27" ht="21">
@@ -1564,7 +1585,9 @@
       <c r="F27" s="12">
         <v>2</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="N27" s="14"/>
     </row>
     <row r="28" ht="21">
@@ -1586,7 +1609,9 @@
       <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N28" s="14"/>
     </row>
     <row r="29" ht="21">
